--- a/smoc-admin-ui/src/main/resources/static/files/register/CMCC.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/register/CMCC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25320" windowHeight="10575"/>
+    <workbookView windowWidth="26520" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="报送模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="111">
   <si>
     <t xml:space="preserve">待系统上线后，表格上传至系统平台的注意事项：
 1、对应的图片请单独存放，直接压缩成zip文件（不要将图片放入文件夹以后再压缩，应将图片批量直接压缩），每个图片大小不能超过100KB，建议每次图片压缩包不超过50M数据；
@@ -291,73 +291,79 @@
     <t/>
   </si>
   <si>
-    <t>{.enterpriseName}</t>
-  </si>
-  <si>
-    <t>{.regCodeNum}</t>
-  </si>
-  <si>
-    <t>{.accessProvince}</t>
-  </si>
-  <si>
-    <t>{.numberSegment}</t>
-  </si>
-  <si>
-    <t>{.socialCreditCode}</t>
-  </si>
-  <si>
-    <t>{.businessLicense}</t>
-  </si>
-  <si>
-    <t>{.registerSign}</t>
-  </si>
-  <si>
-    <t>{.appName}</t>
-  </si>
-  <si>
-    <t>{.liableName}</t>
-  </si>
-  <si>
-    <t>{.liableCertType}</t>
-  </si>
-  <si>
-    <t>{.liableCertNum}</t>
-  </si>
-  <si>
-    <t>{.liableCertUrl}</t>
-  </si>
-  <si>
-    <t>{.handledName}</t>
-  </si>
-  <si>
-    <t>{.handledCertType}</t>
-  </si>
-  <si>
-    <t>{.handledCertNum}</t>
-  </si>
-  <si>
-    <t>{.handledCertUrl}</t>
-  </si>
-  <si>
-    <t>{.authorizeCert}</t>
-  </si>
-  <si>
-    <t>{.authorizeStart}</t>
-  </si>
-  <si>
-    <t>{.authorizeEnd}</t>
-  </si>
-  <si>
-    <t>{.serviceType}</t>
-  </si>
-  <si>
-    <t>{.mainApplication}</t>
-  </si>
-  <si>
-    <t>{.position}</t>
-  </si>
-  <si>
-    <t>{.officePhotos}</t>
+    <t>{rd.registerEnterprise}</t>
+  </si>
+  <si>
+    <t>{rd.operate}</t>
+  </si>
+  <si>
+    <t>{rd.regCodeNum}</t>
+  </si>
+  <si>
+    <t>{rd.accessProvince}</t>
+  </si>
+  <si>
+    <t>{rd.numberSegment}</t>
+  </si>
+  <si>
+    <t>{rd.enterpriseName}</t>
+  </si>
+  <si>
+    <t>{rd.socialCreditCode}</t>
+  </si>
+  <si>
+    <t>{rd.businessLicense}</t>
+  </si>
+  <si>
+    <t>{rd.registerSign}</t>
+  </si>
+  <si>
+    <t>{rd.appName}</t>
+  </si>
+  <si>
+    <t>{rd.liableName}</t>
+  </si>
+  <si>
+    <t>{rd.liableCertType}</t>
+  </si>
+  <si>
+    <t>{rd.liableCertNum}</t>
+  </si>
+  <si>
+    <t>{rd.liableCertUrl}</t>
+  </si>
+  <si>
+    <t>{rd.handledName}</t>
+  </si>
+  <si>
+    <t>{rd.handledCertType}</t>
+  </si>
+  <si>
+    <t>{rd.handledCertNum}</t>
+  </si>
+  <si>
+    <t>{rd.handledCertUrl}</t>
+  </si>
+  <si>
+    <t>{rd.authorizeCert}</t>
+  </si>
+  <si>
+    <t>{rd.authorizeStart}</t>
+  </si>
+  <si>
+    <t>{rd.authorizeEnd}</t>
+  </si>
+  <si>
+    <t>{rd.serviceType}</t>
+  </si>
+  <si>
+    <t>{rd.mainApplication}</t>
+  </si>
+  <si>
+    <t>{rd.position}</t>
+  </si>
+  <si>
+    <t>{rd.officePhotos}</t>
   </si>
 </sst>
 </file>
@@ -365,9 +371,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
@@ -412,6 +418,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +486,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,29 +508,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,25 +526,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,10 +548,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,44 +561,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -583,19 +589,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,7 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,13 +715,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,133 +751,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,11 +835,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,30 +876,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -888,9 +883,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,16 +921,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,133 +948,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1479,8 +1485,8 @@
   </sheetPr>
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1937,82 +1943,82 @@
         <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="U7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="V7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
